--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1643237.350222941</v>
+        <v>-1646106.778066261</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>350.0713108866763</v>
+        <v>223.8749531916079</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>320.3680487288718</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>228.5946409144504</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>76.48464164091926</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>224.0716412765884</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>104.5923331174581</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.6781866221426</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>108.219802131625</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>209.2658677016693</v>
       </c>
       <c r="G8" t="n">
-        <v>192.2952516562997</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>31.32020719934053</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>76.94956457708274</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.6127326838963</v>
+        <v>140.7158229532361</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856684</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>23.05950344416366</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>136.5078095423601</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>50.49265242092922</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,16 +2059,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>72.57619040703456</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>114.8498234654383</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>187.2551470558694</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>28.87857325623944</v>
       </c>
       <c r="T25" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>79.70119244397701</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.61374123523283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261742</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261742</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.010065354184</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>983.6384645338385</v>
+        <v>1654.981924802247</v>
       </c>
       <c r="C2" t="n">
-        <v>983.6384645338385</v>
+        <v>1654.981924802247</v>
       </c>
       <c r="D2" t="n">
-        <v>625.3727659270879</v>
+        <v>1654.981924802247</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>1269.193672204002</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>858.207767414395</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1727.385181243667</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1337.245849267855</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686.9351304176944</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>686.9351304176944</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>686.9351304176944</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>301.1468778194501</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>294.2013770702467</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>280.2779730088376</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X5" t="n">
-        <v>1463.674302457628</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y5" t="n">
-        <v>1073.534970481816</v>
+        <v>1359.546482223453</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8327295799424</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>597.1409169113407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>597.1409169113407</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8327295799424</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8327295799424</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8327295799424</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8327295799424</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8327295799424</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1335.655328379869</v>
+        <v>1489.289030696849</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.655328379869</v>
+        <v>1120.326513756437</v>
       </c>
       <c r="D8" t="n">
-        <v>977.3896297731187</v>
+        <v>1120.326513756437</v>
       </c>
       <c r="E8" t="n">
-        <v>977.3896297731187</v>
+        <v>1120.326513756437</v>
       </c>
       <c r="F8" t="n">
-        <v>566.4037249835112</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>661.4897982516954</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>848.1892110771031</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.394500419803</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="X8" t="n">
-        <v>2112.394500419803</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="Y8" t="n">
-        <v>1722.255168443991</v>
+        <v>1875.888870760971</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>142.9741724191618</v>
       </c>
       <c r="L9" t="n">
-        <v>258.7803994994155</v>
+        <v>647.3357122852804</v>
       </c>
       <c r="M9" t="n">
-        <v>899.3257489665201</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N9" t="n">
-        <v>1566.87014899353</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>254.5157376768982</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>85.57955474899126</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>85.57955474899126</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>85.57955474899126</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>85.57955474899126</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="W10" t="n">
-        <v>475.3083168204283</v>
+        <v>509.7760050368617</v>
       </c>
       <c r="X10" t="n">
-        <v>475.3083168204283</v>
+        <v>281.7864541388444</v>
       </c>
       <c r="Y10" t="n">
-        <v>254.5157376768982</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1804.131916132773</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2356.04164637206</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532815</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253746</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253746</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429816</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429816</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578615</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000596</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101817</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>572.9069687101817</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>426.0170212122713</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>258.8209219271512</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>117.1090907693493</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.030703527249</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.429238550191</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.354011894388</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.669523688501</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.252353651541</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>961.2628027535234</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>961.2628027535234</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>666.6476097656489</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>516.5309703533131</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>368.61787677092</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>368.61787677092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
         <v>402.7245934908939</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2350.747103816259</v>
       </c>
       <c r="T25" t="n">
-        <v>2307.590151828076</v>
+        <v>2131.145638839201</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.514925172274</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.955532171245</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014847</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="29">
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345475</v>
@@ -6856,28 +6856,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1368.15426255076</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
@@ -7087,13 +7087,13 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7108,34 +7108,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7260,16 +7260,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
         <v>782.551295565682</v>
@@ -7555,19 +7555,19 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7731,16 +7731,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>43.95636118853434</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,10 +8532,10 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>21.63976862165688</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,13 +8544,13 @@
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>257.8023768260592</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.66253077680425</v>
+        <v>158.8588884718727</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>135.6608973090997</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.21924749804099</v>
+        <v>39.11615722870121</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>58.20633287440187</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>44.51847645928441</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>115.0314858713396</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>146.0084629450602</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>33.76564955277408</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>99.2678512807216</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>152.1477127454052</v>
       </c>
       <c r="T25" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>206.821805892614</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.970912116862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-1.060233395338277e-12</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1131844.705727231</v>
+        <v>1131844.70572723</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1296314.111224108</v>
+        <v>1296314.111224109</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1296314.111224108</v>
+        <v>1296314.111224109</v>
       </c>
     </row>
     <row r="11">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045142</v>
+        <v>99467.00901045139</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796424</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363186</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682708</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682764</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682777</v>
-      </c>
       <c r="I4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.39582977625</v>
+        <v>13668.39582977624</v>
       </c>
       <c r="L4" t="n">
+        <v>13668.39582977624</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13668.39582977623</v>
+      </c>
+      <c r="N4" t="n">
         <v>13668.3958297762</v>
       </c>
-      <c r="M4" t="n">
-        <v>13668.3958297762</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="P4" t="n">
         <v>13668.39582977622</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13668.39582977622</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-693142.0461485037</v>
+        <v>-693536.867089657</v>
       </c>
       <c r="C6" t="n">
         <v>-169625.2280468003</v>
@@ -26528,40 +26528,40 @@
         <v>-325429.0341405952</v>
       </c>
       <c r="E6" t="n">
-        <v>-756780.7678178953</v>
+        <v>-756815.5057433313</v>
       </c>
       <c r="F6" t="n">
-        <v>14271.92356291106</v>
+        <v>14237.18563747537</v>
       </c>
       <c r="G6" t="n">
-        <v>14271.92356291102</v>
+        <v>14237.18563747528</v>
       </c>
       <c r="H6" t="n">
-        <v>14271.92356291099</v>
+        <v>14237.1856374753</v>
       </c>
       <c r="I6" t="n">
-        <v>14271.92356291106</v>
+        <v>14237.18563747533</v>
       </c>
       <c r="J6" t="n">
-        <v>-162151.2956296819</v>
+        <v>-162186.0335551176</v>
       </c>
       <c r="K6" t="n">
-        <v>-13103.96419768098</v>
+        <v>-13103.96419768108</v>
       </c>
       <c r="L6" t="n">
-        <v>6323.753795950775</v>
+        <v>6323.753795950761</v>
       </c>
       <c r="M6" t="n">
         <v>-117884.7569121076</v>
       </c>
       <c r="N6" t="n">
-        <v>6323.753795950819</v>
+        <v>6323.753795950965</v>
       </c>
       <c r="O6" t="n">
-        <v>6323.753795950877</v>
+        <v>6323.753795950906</v>
       </c>
       <c r="P6" t="n">
-        <v>-13103.96419768086</v>
+        <v>-13103.96419768098</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203982</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="3">
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>93.41612129192322</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>141.1364597640187</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>99.85113148776875</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>281.6456055385955</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>16.9870053580153</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>143.917841192203</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>197.6101780400421</v>
       </c>
       <c r="G8" t="n">
-        <v>220.6216522896371</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>135.6005693552299</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>141.635088775012</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496626</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>332.9841464938405</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526531</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,28 +32309,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N24" t="n">
-        <v>191.332301678856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>638.9422653403551</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34214,22 +34214,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>728.6709493241814</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>332.9841464938405</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>184.6923771898002</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>89.93049555434075</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
@@ -35264,13 +35264,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>418.9259249763225</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663293</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820866</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>496.3460208959107</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37862,22 +37862,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>597.3292372408481</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0097390795103</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
